--- a/data/raw/experimento_1.xlsx
+++ b/data/raw/experimento_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paola\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D11E8F5-C017-4632-987A-B189246B0B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -89,9 +90,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -136,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -196,40 +197,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -238,25 +215,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,11 +509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +547,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -588,7 +561,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -600,7 +575,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -612,7 +589,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -624,7 +603,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,7 +617,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -648,7 +631,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
@@ -660,7 +645,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -672,7 +659,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -684,7 +673,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -696,7 +687,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -708,7 +701,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
@@ -720,7 +715,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
@@ -732,7 +729,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
@@ -744,7 +743,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
@@ -770,7 +771,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,7 +785,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9">
+        <v>2</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,7 +799,9 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9">
+        <v>2</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
@@ -806,7 +813,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
@@ -818,7 +827,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
@@ -830,7 +841,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9">
+        <v>2</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -842,7 +855,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9">
+        <v>2</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -854,7 +869,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
@@ -866,7 +883,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9">
+        <v>2</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -878,7 +897,9 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9">
+        <v>2</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
@@ -890,7 +911,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9">
+        <v>2</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
@@ -902,7 +925,9 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9">
+        <v>2</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
@@ -914,7 +939,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9">
+        <v>2</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
@@ -926,7 +953,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9">
+        <v>2</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
@@ -938,7 +967,9 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="9">
+        <v>2</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
@@ -964,7 +995,9 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9">
+        <v>3</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
@@ -976,7 +1009,9 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9">
+        <v>3</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,7 +1023,9 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9">
+        <v>3</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1037,9 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9">
+        <v>3</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1051,9 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9">
+        <v>3</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +1065,9 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9">
+        <v>3</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1079,9 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9">
+        <v>3</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,7 +1093,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9">
+        <v>3</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1107,9 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9">
+        <v>3</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1072,7 +1121,9 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9">
+        <v>3</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1135,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9">
+        <v>3</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1149,9 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9">
+        <v>3</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1163,9 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9">
+        <v>3</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1177,9 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9">
+        <v>3</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
@@ -1132,7 +1191,9 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
+      <c r="A49" s="9">
+        <v>3</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>19</v>
       </c>
@@ -1158,7 +1219,9 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9">
+        <v>4</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1233,9 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9">
+        <v>4</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1247,9 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9">
+        <v>4</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1261,9 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9">
+        <v>4</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1275,9 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9">
+        <v>4</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1289,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9">
+        <v>4</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1303,9 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10"/>
+      <c r="A57" s="9">
+        <v>4</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,7 +1317,9 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9">
+        <v>4</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1254,7 +1331,9 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9">
+        <v>4</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1345,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9">
+        <v>4</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1359,9 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
+      <c r="A61" s="9">
+        <v>4</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
@@ -1290,7 +1373,9 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9">
+        <v>4</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,7 +1387,9 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
+      <c r="A63" s="9">
+        <v>4</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,7 +1401,9 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9">
+        <v>4</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1415,9 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
+      <c r="A65" s="9">
+        <v>4</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>19</v>
       </c>
@@ -1352,7 +1443,9 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10"/>
+      <c r="A67" s="9">
+        <v>5</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
@@ -1364,7 +1457,9 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9">
+        <v>5</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
@@ -1376,7 +1471,9 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="10"/>
+      <c r="A69" s="9">
+        <v>5</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1485,9 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10"/>
+      <c r="A70" s="9">
+        <v>5</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1499,9 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10"/>
+      <c r="A71" s="9">
+        <v>5</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1513,9 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
+      <c r="A72" s="9">
+        <v>5</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1527,9 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
+      <c r="A73" s="9">
+        <v>5</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>11</v>
       </c>
@@ -1436,7 +1541,9 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
+      <c r="A74" s="9">
+        <v>5</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1555,9 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10"/>
+      <c r="A75" s="9">
+        <v>5</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>13</v>
       </c>
@@ -1460,7 +1569,9 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10"/>
+      <c r="A76" s="9">
+        <v>5</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +1583,9 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10"/>
+      <c r="A77" s="9">
+        <v>5</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1597,9 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9">
+        <v>5</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>16</v>
       </c>
@@ -1496,7 +1611,9 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10"/>
+      <c r="A79" s="9">
+        <v>5</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1625,9 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9">
+        <v>5</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>18</v>
       </c>
@@ -1520,7 +1639,9 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
+      <c r="A81" s="9">
+        <v>5</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,7 +1667,9 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10"/>
+      <c r="A83" s="9">
+        <v>6</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1681,9 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10"/>
+      <c r="A84" s="9">
+        <v>6</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1695,9 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10"/>
+      <c r="A85" s="9">
+        <v>6</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
       </c>
@@ -1582,7 +1709,9 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10"/>
+      <c r="A86" s="9">
+        <v>6</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>8</v>
       </c>
@@ -1594,7 +1723,9 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="10"/>
+      <c r="A87" s="9">
+        <v>6</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +1737,9 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10"/>
+      <c r="A88" s="9">
+        <v>6</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
@@ -1618,7 +1751,9 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9">
+        <v>6</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1765,9 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="10"/>
+      <c r="A90" s="9">
+        <v>6</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>12</v>
       </c>
@@ -1642,7 +1779,9 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="10"/>
+      <c r="A91" s="9">
+        <v>6</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1793,9 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="10"/>
+      <c r="A92" s="9">
+        <v>6</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>14</v>
       </c>
@@ -1666,7 +1807,9 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="10"/>
+      <c r="A93" s="9">
+        <v>6</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>15</v>
       </c>
@@ -1678,7 +1821,9 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="10"/>
+      <c r="A94" s="9">
+        <v>6</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +1835,9 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="10"/>
+      <c r="A95" s="9">
+        <v>6</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>17</v>
       </c>
@@ -1702,7 +1849,9 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9">
+        <v>6</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1863,9 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
+      <c r="A97" s="9">
+        <v>6</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,7 +1891,9 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="10"/>
+      <c r="A99" s="9">
+        <v>7</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>5</v>
       </c>
@@ -1752,7 +1905,9 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="10"/>
+      <c r="A100" s="9">
+        <v>7</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +1919,9 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="10"/>
+      <c r="A101" s="9">
+        <v>7</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1933,9 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="10"/>
+      <c r="A102" s="9">
+        <v>7</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1947,9 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="10"/>
+      <c r="A103" s="9">
+        <v>7</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>9</v>
       </c>
@@ -1800,7 +1961,9 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="10"/>
+      <c r="A104" s="9">
+        <v>7</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1975,9 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10"/>
+      <c r="A105" s="9">
+        <v>7</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>11</v>
       </c>
@@ -1824,7 +1989,9 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="10"/>
+      <c r="A106" s="9">
+        <v>7</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>12</v>
       </c>
@@ -1836,7 +2003,9 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="10"/>
+      <c r="A107" s="9">
+        <v>7</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>13</v>
       </c>
@@ -1848,7 +2017,9 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9">
+        <v>7</v>
+      </c>
       <c r="B108" s="1" t="s">
         <v>14</v>
       </c>
@@ -1860,7 +2031,9 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="10"/>
+      <c r="A109" s="9">
+        <v>7</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>15</v>
       </c>
@@ -1872,7 +2045,9 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="10"/>
+      <c r="A110" s="9">
+        <v>7</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>16</v>
       </c>
@@ -1884,7 +2059,9 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="10"/>
+      <c r="A111" s="9">
+        <v>7</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>17</v>
       </c>
@@ -1896,7 +2073,9 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="10"/>
+      <c r="A112" s="9">
+        <v>7</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>18</v>
       </c>
@@ -1908,7 +2087,9 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11"/>
+      <c r="A113" s="9">
+        <v>7</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +2115,9 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9">
+        <v>8</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +2129,9 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="10"/>
+      <c r="A116" s="9">
+        <v>8</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>6</v>
       </c>
@@ -1958,7 +2143,9 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
+      <c r="A117" s="9">
+        <v>8</v>
+      </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +2157,9 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="10"/>
+      <c r="A118" s="9">
+        <v>8</v>
+      </c>
       <c r="B118" s="1" t="s">
         <v>8</v>
       </c>
@@ -1982,7 +2171,9 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
+      <c r="A119" s="9">
+        <v>8</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +2185,9 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="10"/>
+      <c r="A120" s="9">
+        <v>8</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
@@ -2006,7 +2199,9 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
+      <c r="A121" s="9">
+        <v>8</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>11</v>
       </c>
@@ -2018,7 +2213,9 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
+      <c r="A122" s="9">
+        <v>8</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>12</v>
       </c>
@@ -2030,7 +2227,9 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10"/>
+      <c r="A123" s="9">
+        <v>8</v>
+      </c>
       <c r="B123" s="1" t="s">
         <v>13</v>
       </c>
@@ -2042,7 +2241,9 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10"/>
+      <c r="A124" s="9">
+        <v>8</v>
+      </c>
       <c r="B124" s="1" t="s">
         <v>14</v>
       </c>
@@ -2054,7 +2255,9 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="10"/>
+      <c r="A125" s="9">
+        <v>8</v>
+      </c>
       <c r="B125" s="1" t="s">
         <v>15</v>
       </c>
@@ -2066,7 +2269,9 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="10"/>
+      <c r="A126" s="9">
+        <v>8</v>
+      </c>
       <c r="B126" s="1" t="s">
         <v>16</v>
       </c>
@@ -2078,7 +2283,9 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="10"/>
+      <c r="A127" s="9">
+        <v>8</v>
+      </c>
       <c r="B127" s="1" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2297,9 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="10"/>
+      <c r="A128" s="9">
+        <v>8</v>
+      </c>
       <c r="B128" s="1" t="s">
         <v>18</v>
       </c>
@@ -2102,7 +2311,9 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="11"/>
+      <c r="A129" s="9">
+        <v>8</v>
+      </c>
       <c r="B129" s="1" t="s">
         <v>19</v>
       </c>
@@ -2128,7 +2339,9 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="10"/>
+      <c r="A131" s="9">
+        <v>9</v>
+      </c>
       <c r="B131" s="1" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2353,9 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="10"/>
+      <c r="A132" s="9">
+        <v>9</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
@@ -2152,7 +2367,9 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10"/>
+      <c r="A133" s="9">
+        <v>9</v>
+      </c>
       <c r="B133" s="1" t="s">
         <v>7</v>
       </c>
@@ -2164,7 +2381,9 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="10"/>
+      <c r="A134" s="9">
+        <v>9</v>
+      </c>
       <c r="B134" s="1" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2395,9 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="10"/>
+      <c r="A135" s="9">
+        <v>9</v>
+      </c>
       <c r="B135" s="1" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +2409,9 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="10"/>
+      <c r="A136" s="9">
+        <v>9</v>
+      </c>
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -2200,7 +2423,9 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="10"/>
+      <c r="A137" s="9">
+        <v>9</v>
+      </c>
       <c r="B137" s="1" t="s">
         <v>11</v>
       </c>
@@ -2212,7 +2437,9 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="10"/>
+      <c r="A138" s="9">
+        <v>9</v>
+      </c>
       <c r="B138" s="1" t="s">
         <v>12</v>
       </c>
@@ -2224,7 +2451,9 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="10"/>
+      <c r="A139" s="9">
+        <v>9</v>
+      </c>
       <c r="B139" s="1" t="s">
         <v>13</v>
       </c>
@@ -2236,7 +2465,9 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="10"/>
+      <c r="A140" s="9">
+        <v>9</v>
+      </c>
       <c r="B140" s="1" t="s">
         <v>14</v>
       </c>
@@ -2248,7 +2479,9 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="10"/>
+      <c r="A141" s="9">
+        <v>9</v>
+      </c>
       <c r="B141" s="1" t="s">
         <v>15</v>
       </c>
@@ -2260,7 +2493,9 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="10"/>
+      <c r="A142" s="9">
+        <v>9</v>
+      </c>
       <c r="B142" s="1" t="s">
         <v>16</v>
       </c>
@@ -2272,7 +2507,9 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="10"/>
+      <c r="A143" s="9">
+        <v>9</v>
+      </c>
       <c r="B143" s="1" t="s">
         <v>17</v>
       </c>
@@ -2284,7 +2521,9 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="10"/>
+      <c r="A144" s="9">
+        <v>9</v>
+      </c>
       <c r="B144" s="1" t="s">
         <v>18</v>
       </c>
@@ -2296,7 +2535,9 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="11"/>
+      <c r="A145" s="9">
+        <v>9</v>
+      </c>
       <c r="B145" s="1" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2563,9 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="10"/>
+      <c r="A147" s="9">
+        <v>10</v>
+      </c>
       <c r="B147" s="1" t="s">
         <v>5</v>
       </c>
@@ -2334,7 +2577,9 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="10"/>
+      <c r="A148" s="9">
+        <v>10</v>
+      </c>
       <c r="B148" s="1" t="s">
         <v>6</v>
       </c>
@@ -2346,7 +2591,9 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="10"/>
+      <c r="A149" s="9">
+        <v>10</v>
+      </c>
       <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2605,9 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="10"/>
+      <c r="A150" s="9">
+        <v>10</v>
+      </c>
       <c r="B150" s="1" t="s">
         <v>8</v>
       </c>
@@ -2370,7 +2619,9 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10"/>
+      <c r="A151" s="9">
+        <v>10</v>
+      </c>
       <c r="B151" s="1" t="s">
         <v>9</v>
       </c>
@@ -2382,7 +2633,9 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="10"/>
+      <c r="A152" s="9">
+        <v>10</v>
+      </c>
       <c r="B152" s="1" t="s">
         <v>10</v>
       </c>
@@ -2394,7 +2647,9 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="10"/>
+      <c r="A153" s="9">
+        <v>10</v>
+      </c>
       <c r="B153" s="1" t="s">
         <v>11</v>
       </c>
@@ -2406,7 +2661,9 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="10"/>
+      <c r="A154" s="9">
+        <v>10</v>
+      </c>
       <c r="B154" s="1" t="s">
         <v>12</v>
       </c>
@@ -2418,7 +2675,9 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="10"/>
+      <c r="A155" s="9">
+        <v>10</v>
+      </c>
       <c r="B155" s="1" t="s">
         <v>13</v>
       </c>
@@ -2430,7 +2689,9 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="10"/>
+      <c r="A156" s="9">
+        <v>10</v>
+      </c>
       <c r="B156" s="1" t="s">
         <v>14</v>
       </c>
@@ -2442,7 +2703,9 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="10"/>
+      <c r="A157" s="9">
+        <v>10</v>
+      </c>
       <c r="B157" s="1" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2717,9 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="10"/>
+      <c r="A158" s="9">
+        <v>10</v>
+      </c>
       <c r="B158" s="1" t="s">
         <v>16</v>
       </c>
@@ -2466,7 +2731,9 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="10"/>
+      <c r="A159" s="9">
+        <v>10</v>
+      </c>
       <c r="B159" s="1" t="s">
         <v>17</v>
       </c>
@@ -2478,7 +2745,9 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="10"/>
+      <c r="A160" s="9">
+        <v>10</v>
+      </c>
       <c r="B160" s="1" t="s">
         <v>18</v>
       </c>
@@ -2490,7 +2759,9 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="11"/>
+      <c r="A161" s="9">
+        <v>10</v>
+      </c>
       <c r="B161" s="6" t="s">
         <v>19</v>
       </c>
@@ -2502,18 +2773,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A146:A161"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A82:A97"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
